--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01915751537825299</v>
+        <v>-0.02311304849019963</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.992868672462695</v>
+        <v>-8.591283878005999</v>
       </c>
       <c r="I2" t="n">
-        <v>-47.58863180965353</v>
+        <v>-12.93322156228928</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01109146838473746</v>
+        <v>0.008577622582308228</v>
       </c>
       <c r="H3" t="n">
-        <v>-516.2071464612156</v>
+        <v>221.8751291142319</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06083120880718501</v>
+        <v>0.07735673312646682</v>
       </c>
       <c r="H4" t="n">
-        <v>14.30152258011222</v>
+        <v>45.35289617874895</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08558335297999391</v>
+        <v>0.07312548912956547</v>
       </c>
       <c r="H5" t="n">
-        <v>0.339850631790156</v>
+        <v>-14.26602953552899</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01449480625911677</v>
+        <v>0.03189059567428419</v>
       </c>
       <c r="H6" t="n">
-        <v>-73.87951090291097</v>
+        <v>-42.53128039666721</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06702701746710392</v>
+        <v>0.06754752128068044</v>
       </c>
       <c r="H7" t="n">
-        <v>-10.53456765470855</v>
+        <v>-9.839816486019737</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01964741450010183</v>
+        <v>-0.005963735982526117</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.243011124433915</v>
+        <v>70.02350573506287</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.002052948362865386</v>
+        <v>-0.005064542026212948</v>
       </c>
       <c r="H9" t="n">
-        <v>-71.62078014343216</v>
+        <v>29.98959241521399</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04362453813909582</v>
+        <v>-0.05974602796164236</v>
       </c>
       <c r="H10" t="n">
-        <v>-11.99185064184039</v>
+        <v>-20.53164518646715</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05155010871690045</v>
+        <v>-0.03643391916079822</v>
       </c>
       <c r="H11" t="n">
-        <v>-33.29601003822359</v>
+        <v>52.85581663238473</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07215657911178765</v>
+        <v>-0.07768190709401954</v>
       </c>
       <c r="H12" t="n">
-        <v>-9.586005546459283</v>
+        <v>2.66263168798465</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03929284852705765</v>
+        <v>-0.02874644649377782</v>
       </c>
       <c r="H13" t="n">
-        <v>-13.99247397195371</v>
+        <v>37.07733499329029</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.007975938777261975</v>
+        <v>-0.03578103570871931</v>
       </c>
       <c r="H14" t="n">
-        <v>-85.67942157890168</v>
+        <v>35.75613577731909</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08544339929009993</v>
+        <v>-0.1179466318383518</v>
       </c>
       <c r="H15" t="n">
-        <v>1.02283958502305</v>
+        <v>-39.45259396041113</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1762182847349837</v>
+        <v>-0.1531915814983249</v>
       </c>
       <c r="H16" t="n">
-        <v>13.60957159986577</v>
+        <v>1.235958726390416</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1789234175967398</v>
+        <v>-0.2303117591815609</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.85544561099181</v>
+        <v>-17.3220528822183</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1314527170829034</v>
+        <v>-0.1420823768938954</v>
       </c>
       <c r="H18" t="n">
-        <v>20.59989867197404</v>
+        <v>-30.35196713104371</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1142278422308244</v>
+        <v>-0.08282490357576297</v>
       </c>
       <c r="H19" t="n">
-        <v>29.58582101434911</v>
+        <v>6.039255222810639</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1017835182676962</v>
+        <v>0.0749036675066328</v>
       </c>
       <c r="H20" t="n">
-        <v>10.82321517147866</v>
+        <v>-18.44391506109853</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1081127082004829</v>
+        <v>0.1393765840905792</v>
       </c>
       <c r="H21" t="n">
-        <v>43.51089404088746</v>
+        <v>85.01116588544225</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1309822908772069</v>
+        <v>0.09592176563319911</v>
       </c>
       <c r="H22" t="n">
-        <v>8.735725249662037</v>
+        <v>-20.36997762444062</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1655025497549577</v>
+        <v>0.1581775886261837</v>
       </c>
       <c r="H23" t="n">
-        <v>26.05049282632998</v>
+        <v>20.4716364184817</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08714652244683405</v>
+        <v>0.09290562014382474</v>
       </c>
       <c r="H24" t="n">
-        <v>-8.644587049867077</v>
+        <v>-2.607343869570125</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1015578935591341</v>
+        <v>0.09390607073106323</v>
       </c>
       <c r="H25" t="n">
-        <v>18.36981977560271</v>
+        <v>9.451311746621158</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02811150638502145</v>
+        <v>0.03669281719302514</v>
       </c>
       <c r="H26" t="n">
-        <v>-26.78932092001914</v>
+        <v>-4.44104889767479</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04159158991502068</v>
+        <v>0.03999957697359237</v>
       </c>
       <c r="H27" t="n">
-        <v>16.0853410455825</v>
+        <v>11.64190991846553</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09986050072303494</v>
+        <v>-0.112978822096432</v>
       </c>
       <c r="H28" t="n">
-        <v>1.938214508162144</v>
+        <v>-15.32947780512146</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1236023077650406</v>
+        <v>-0.0972243006290992</v>
       </c>
       <c r="H29" t="n">
-        <v>13.55057904768397</v>
+        <v>10.68228552070114</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1150089067307027</v>
+        <v>0.1305366137294684</v>
       </c>
       <c r="H30" t="n">
-        <v>-5.684980422390804</v>
+        <v>7.048781085429923</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1148001282362097</v>
+        <v>0.1222759720240669</v>
       </c>
       <c r="H31" t="n">
-        <v>6.679783241005397</v>
+        <v>13.62682595851232</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05883561340969403</v>
+        <v>0.06221759411413611</v>
       </c>
       <c r="H32" t="n">
-        <v>30.75881961236569</v>
+        <v>38.27508024493999</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08233902073371392</v>
+        <v>0.08129466119846153</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.988152634979762</v>
+        <v>-4.218617206033676</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.009317529655416032</v>
+        <v>-0.005186750175685604</v>
       </c>
       <c r="H34" t="n">
-        <v>-2099.368980297454</v>
+        <v>-1012.980349227032</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02658271890027053</v>
+        <v>0.03417303490197423</v>
       </c>
       <c r="H35" t="n">
-        <v>-35.06010477176299</v>
+        <v>-16.517444491259</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02956138228940627</v>
+        <v>0.03620052158074187</v>
       </c>
       <c r="H36" t="n">
-        <v>-28.78725675628653</v>
+        <v>-12.79371095100248</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03359077111160971</v>
+        <v>0.03140650718523798</v>
       </c>
       <c r="H37" t="n">
-        <v>-20.3262584508951</v>
+        <v>-25.50710050321187</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.121291219585634</v>
+        <v>-0.09148633787704914</v>
       </c>
       <c r="H38" t="n">
-        <v>16.6554379082824</v>
+        <v>12.01029353870632</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1227507193092876</v>
+        <v>-0.1225850442918438</v>
       </c>
       <c r="H39" t="n">
-        <v>24.58212993211532</v>
+        <v>-24.41398308404934</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1284955517869971</v>
+        <v>0.1285105310891061</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.89165100111047</v>
+        <v>-2.880330645839557</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1539142177959443</v>
+        <v>0.1281786088088698</v>
       </c>
       <c r="H41" t="n">
-        <v>21.4783101545931</v>
+        <v>1.166227649687893</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07532845152496569</v>
+        <v>0.08547452384880318</v>
       </c>
       <c r="H42" t="n">
-        <v>-20.26292441501304</v>
+        <v>-9.523049647927913</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.117341742964607</v>
+        <v>0.1110065102272983</v>
       </c>
       <c r="H43" t="n">
-        <v>10.83366105976515</v>
+        <v>4.849797004214272</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.02051208660992287</v>
+        <v>-0.02702666433515784</v>
       </c>
       <c r="H44" t="n">
-        <v>68.6238290658427</v>
+        <v>-122.178255861445</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.02702668522483448</v>
+        <v>-0.02288802083932573</v>
       </c>
       <c r="H45" t="n">
-        <v>-26.07635606641336</v>
+        <v>37.39646986689659</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0545141755024599</v>
+        <v>0.0494588768302817</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.1107228677802431</v>
+        <v>-9.373820500588868</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06549377398020964</v>
+        <v>0.05688460350117217</v>
       </c>
       <c r="H47" t="n">
-        <v>62.23163087874472</v>
+        <v>40.90624859508781</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.03075681438638449</v>
+        <v>-0.03120874045905624</v>
       </c>
       <c r="H48" t="n">
-        <v>2.113098987031825</v>
+        <v>-3.613500531022011</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.03397299052886555</v>
+        <v>-0.02613489859227327</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.934659678675257</v>
+        <v>24.55984342806185</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08773722003802394</v>
+        <v>0.09017824139781762</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.555316615738618</v>
+        <v>0.1557853936050537</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06661594752435755</v>
+        <v>0.06876050082579707</v>
       </c>
       <c r="H51" t="n">
-        <v>1.648543444276171</v>
+        <v>4.92089379777425</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03109620346854822</v>
+        <v>0.03382869106079982</v>
       </c>
       <c r="H52" t="n">
-        <v>111.4924602951097</v>
+        <v>130.0767393758553</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02287421297368087</v>
+        <v>0.03805128316846478</v>
       </c>
       <c r="H53" t="n">
-        <v>-18.804289216738</v>
+        <v>35.06917097578722</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03769347875168612</v>
+        <v>0.04883960356334163</v>
       </c>
       <c r="H54" t="n">
-        <v>94.26684070509134</v>
+        <v>151.7123863266423</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04915736518981836</v>
+        <v>0.05103407725099665</v>
       </c>
       <c r="H55" t="n">
-        <v>-24.65449725920677</v>
+        <v>-21.77798397979942</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06543234742052789</v>
+        <v>0.05460525660460729</v>
       </c>
       <c r="H56" t="n">
-        <v>1.954290584389212</v>
+        <v>-14.91608632774381</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07947909309515733</v>
+        <v>0.0742698588851655</v>
       </c>
       <c r="H57" t="n">
-        <v>4.899534130737742</v>
+        <v>-1.97581158001168</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02288913988815655</v>
+        <v>0.02896751501364637</v>
       </c>
       <c r="H58" t="n">
-        <v>-19.62039842714723</v>
+        <v>1.724980786949573</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02202417824042264</v>
+        <v>0.02924082894779932</v>
       </c>
       <c r="H59" t="n">
-        <v>-18.00466331188576</v>
+        <v>8.862704816556782</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04797336096538066</v>
+        <v>0.04482364369351647</v>
       </c>
       <c r="H60" t="n">
-        <v>6.592398434772908</v>
+        <v>-0.4059838266182173</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04162911724169555</v>
+        <v>0.04487734202783759</v>
       </c>
       <c r="H61" t="n">
-        <v>-16.78851891050356</v>
+        <v>-10.29571739859039</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.009224370586172707</v>
+        <v>0.00300576465798608</v>
       </c>
       <c r="H62" t="n">
-        <v>-172.4865821158431</v>
+        <v>123.6197803055099</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.08909534591982e-05</v>
+        <v>0.01154519262574682</v>
       </c>
       <c r="H63" t="n">
-        <v>-100.74216779994</v>
+        <v>177.3779780624677</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03504614720134611</v>
+        <v>0.03947970117555385</v>
       </c>
       <c r="H64" t="n">
-        <v>-6.967844018881405</v>
+        <v>4.801298035722521</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07946221248818143</v>
+        <v>0.08249708086744006</v>
       </c>
       <c r="H65" t="n">
-        <v>3.997762868198366</v>
+        <v>7.969707672645835</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0007358652952486788</v>
+        <v>-0.0009863390422601751</v>
       </c>
       <c r="H66" t="n">
-        <v>-88.20492307903955</v>
+        <v>84.19011611401835</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01985961897792711</v>
+        <v>0.008216198485374434</v>
       </c>
       <c r="H67" t="n">
-        <v>237.0067746245684</v>
+        <v>39.42435422899104</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.004797663981994713</v>
+        <v>-0.005049676170891491</v>
       </c>
       <c r="H68" t="n">
-        <v>-2895.585297817151</v>
+        <v>-3042.432090921997</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01124228000623029</v>
+        <v>0.01819277786498966</v>
       </c>
       <c r="H69" t="n">
-        <v>59.60999369731304</v>
+        <v>158.2882794912069</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08727715779964126</v>
+        <v>-0.07159292775944263</v>
       </c>
       <c r="H70" t="n">
-        <v>38.53717757243329</v>
+        <v>-13.64121376075631</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.05775841647455787</v>
+        <v>-0.05341051831073038</v>
       </c>
       <c r="H71" t="n">
-        <v>22.09749201912902</v>
+        <v>-12.90632138529151</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04762393864203665</v>
+        <v>0.06157143379927073</v>
       </c>
       <c r="H72" t="n">
-        <v>-30.45155998184618</v>
+        <v>-10.08309491982036</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07950007672227129</v>
+        <v>0.06806722244893008</v>
       </c>
       <c r="H73" t="n">
-        <v>7.924549974046298</v>
+        <v>-7.596009291320279</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05317410584190924</v>
+        <v>0.05002131870887359</v>
       </c>
       <c r="H74" t="n">
-        <v>-15.64506959202748</v>
+        <v>-20.64662316754172</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03924098197385383</v>
+        <v>0.03493384293956828</v>
       </c>
       <c r="H75" t="n">
-        <v>48.25424372882415</v>
+        <v>31.98167336887831</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.003384437385056626</v>
+        <v>0.001308943659968534</v>
       </c>
       <c r="H76" t="n">
-        <v>-80.25957817266506</v>
+        <v>-92.36531894190672</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.00374074050112691</v>
+        <v>0.0007225126109506524</v>
       </c>
       <c r="H77" t="n">
-        <v>-68.01228787424628</v>
+        <v>106.1783289697197</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01313694320815456</v>
+        <v>0.01165287423487424</v>
       </c>
       <c r="H78" t="n">
-        <v>417.2988469740258</v>
+        <v>358.8600491088351</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.008555255534726761</v>
+        <v>-0.003265349010139536</v>
       </c>
       <c r="H79" t="n">
-        <v>26.70542277181552</v>
+        <v>51.63938410163767</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02952164521395897</v>
+        <v>0.03947102183839561</v>
       </c>
       <c r="H80" t="n">
-        <v>139.1421490643482</v>
+        <v>219.7377693481845</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05474828310945756</v>
+        <v>0.0472055949180798</v>
       </c>
       <c r="H81" t="n">
-        <v>36.71321223995701</v>
+        <v>17.87818997074704</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05301786471084301</v>
+        <v>0.05081011656420437</v>
       </c>
       <c r="H82" t="n">
-        <v>34.94639550129041</v>
+        <v>29.32701312539841</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02994757703866334</v>
+        <v>0.03297392802737022</v>
       </c>
       <c r="H83" t="n">
-        <v>-27.8316463203235</v>
+        <v>-20.53867673450806</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0433022157842454</v>
+        <v>0.0174667565507911</v>
       </c>
       <c r="H84" t="n">
-        <v>18.48529573406099</v>
+        <v>-52.20674559133545</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02122771880244258</v>
+        <v>0.0326235568888491</v>
       </c>
       <c r="H85" t="n">
-        <v>-31.56479783719752</v>
+        <v>5.173793365925897</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0261650067395301</v>
+        <v>0.02842281899513354</v>
       </c>
       <c r="H86" t="n">
-        <v>-19.76936043958685</v>
+        <v>-12.84615483609935</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05064744100132358</v>
+        <v>0.04110140606968387</v>
       </c>
       <c r="H87" t="n">
-        <v>-6.195957472901402</v>
+        <v>-23.87615313509289</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06748595298701975</v>
+        <v>0.06956192695077633</v>
       </c>
       <c r="H88" t="n">
-        <v>-20.12202017041065</v>
+        <v>-17.66484798769588</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1048532396845425</v>
+        <v>0.1002213852821072</v>
       </c>
       <c r="H89" t="n">
-        <v>16.10650482286014</v>
+        <v>10.97754145336282</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04318673174502713</v>
+        <v>-0.0344587551848569</v>
       </c>
       <c r="H90" t="n">
-        <v>-13.18876008987831</v>
+        <v>30.73318719698633</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02768811374047176</v>
+        <v>-0.01971863541145283</v>
       </c>
       <c r="H91" t="n">
-        <v>34.97141897445439</v>
+        <v>3.877446233057629</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04521701143231689</v>
+        <v>0.03086877465042221</v>
       </c>
       <c r="H92" t="n">
-        <v>14.44850591750683</v>
+        <v>-21.86822997947947</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04600867912740775</v>
+        <v>0.0494411808902282</v>
       </c>
       <c r="H93" t="n">
-        <v>-6.517622487363386</v>
+        <v>0.45667957238912</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.09314812988945344</v>
+        <v>0.09652897824834118</v>
       </c>
       <c r="H94" t="n">
-        <v>2.633065115188443</v>
+        <v>6.358172964096433</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.09864834603300228</v>
+        <v>0.1069214023301275</v>
       </c>
       <c r="H95" t="n">
-        <v>-5.193167986003971</v>
+        <v>2.757723135287456</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06756648742699696</v>
+        <v>-0.09464411319332762</v>
       </c>
       <c r="H96" t="n">
-        <v>-39.69508004385137</v>
+        <v>15.52756569429427</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1087500214850692</v>
+        <v>-0.1117063887391185</v>
       </c>
       <c r="H97" t="n">
-        <v>1.647373321116908</v>
+        <v>-4.410655220678956</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.08575291145898019</v>
+        <v>0.09756899573276923</v>
       </c>
       <c r="H98" t="n">
-        <v>-11.35167314260137</v>
+        <v>0.8633768546045864</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1116708146881278</v>
+        <v>0.111786747907874</v>
       </c>
       <c r="H99" t="n">
-        <v>-1.955234729651193</v>
+        <v>-1.853447657095153</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02066440757924795</v>
+        <v>0.0297854185146529</v>
       </c>
       <c r="H100" t="n">
-        <v>-46.2124185449757</v>
+        <v>-22.47125312521602</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02608794194714286</v>
+        <v>0.03203958756433967</v>
       </c>
       <c r="H101" t="n">
-        <v>29.36515024004171</v>
+        <v>58.8782306893975</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>0.002616225198842525</v>
+        <v>0.008245473400455009</v>
       </c>
       <c r="H102" t="n">
-        <v>-209.9248163074627</v>
+        <v>446.4465327044821</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>0.00448995639753463</v>
+        <v>0.009048168704369893</v>
       </c>
       <c r="H103" t="n">
-        <v>-169.1822945947704</v>
+        <v>239.4162921476504</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07424581242315459</v>
+        <v>0.06025957749713434</v>
       </c>
       <c r="H104" t="n">
-        <v>61.75878041354058</v>
+        <v>31.28707796497607</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.08284456451109741</v>
+        <v>0.07682350878257384</v>
       </c>
       <c r="H105" t="n">
-        <v>24.6733941569317</v>
+        <v>15.61226312784028</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.26619456036679</v>
+        <v>-0.2680275493501189</v>
       </c>
       <c r="H106" t="n">
-        <v>3.271292754635318</v>
+        <v>-3.982408495139368</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2824524585326365</v>
+        <v>-0.2565577425585684</v>
       </c>
       <c r="H107" t="n">
-        <v>-2.407128496673943</v>
+        <v>11.35426141171759</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1554429956546831</v>
+        <v>0.1541250534777782</v>
       </c>
       <c r="H108" t="n">
-        <v>2.924384310938486</v>
+        <v>2.051727511292779</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1909123715674402</v>
+        <v>0.1918322903136464</v>
       </c>
       <c r="H109" t="n">
-        <v>1.115180668729896</v>
+        <v>1.602408130520305</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.05137809989850802</v>
+        <v>0.07212138778493836</v>
       </c>
       <c r="H110" t="n">
-        <v>-28.53748048973832</v>
+        <v>0.3146494687315782</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.08522596115388457</v>
+        <v>0.06066719904117158</v>
       </c>
       <c r="H111" t="n">
-        <v>30.30954761067347</v>
+        <v>-7.240526773438208</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.09383675514264379</v>
+        <v>0.08757586210163906</v>
       </c>
       <c r="H112" t="n">
-        <v>11.46334322689198</v>
+        <v>4.026384554615497</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.06590560653650278</v>
+        <v>0.09710828531328197</v>
       </c>
       <c r="H113" t="n">
-        <v>-14.4310741409096</v>
+        <v>26.08110452140838</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02311304849019963</v>
+        <v>-0.02614557225621015</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.591283878005999</v>
+        <v>-22.83889164299987</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.93322156228928</v>
+        <v>74.13767994100415</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008577622582308228</v>
+        <v>-0.006273416865477292</v>
       </c>
       <c r="H3" t="n">
-        <v>221.8751291142319</v>
+        <v>-335.4098521107376</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07735673312646682</v>
+        <v>0.07189931824172614</v>
       </c>
       <c r="H4" t="n">
-        <v>45.35289617874895</v>
+        <v>35.09844220834637</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07312548912956547</v>
+        <v>0.07349500030409874</v>
       </c>
       <c r="H5" t="n">
-        <v>-14.26602953552899</v>
+        <v>-13.83280631198794</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03189059567428419</v>
+        <v>0.02438131265903333</v>
       </c>
       <c r="H6" t="n">
-        <v>-42.53128039666721</v>
+        <v>-56.06344782411704</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06754752128068044</v>
+        <v>0.07207169459887262</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.839816486019737</v>
+        <v>-3.801100499354421</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.005963735982526117</v>
+        <v>-0.004891174740414164</v>
       </c>
       <c r="H8" t="n">
-        <v>70.02350573506287</v>
+        <v>75.41469441564294</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.005064542026212948</v>
+        <v>-0.003728375359628469</v>
       </c>
       <c r="H9" t="n">
-        <v>29.98959241521399</v>
+        <v>48.46027988203983</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05974602796164236</v>
+        <v>-0.0765816883432598</v>
       </c>
       <c r="H10" t="n">
-        <v>-20.53164518646715</v>
+        <v>-54.4959088007741</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03643391916079822</v>
+        <v>-0.03240747648489919</v>
       </c>
       <c r="H11" t="n">
-        <v>52.85581663238473</v>
+        <v>58.0658889003174</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07768190709401954</v>
+        <v>-0.07752197403602884</v>
       </c>
       <c r="H12" t="n">
-        <v>2.66263168798465</v>
+        <v>2.863031801128961</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02874644649377782</v>
+        <v>-0.05183507954404607</v>
       </c>
       <c r="H13" t="n">
-        <v>37.07733499329029</v>
+        <v>-13.46102713781117</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03578103570871931</v>
+        <v>-0.02093675793503072</v>
       </c>
       <c r="H14" t="n">
-        <v>35.75613577731909</v>
+        <v>62.40862771578522</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1179466318383518</v>
+        <v>-0.1027169973902425</v>
       </c>
       <c r="H15" t="n">
-        <v>-39.45259396041113</v>
+        <v>-21.44604306739026</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1531915814983249</v>
+        <v>-0.1445169936154053</v>
       </c>
       <c r="H16" t="n">
-        <v>1.235958726390416</v>
+        <v>6.828546434675117</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2303117591815609</v>
+        <v>-0.189062120136124</v>
       </c>
       <c r="H17" t="n">
-        <v>-17.3220528822183</v>
+        <v>3.690735829304087</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1420823768938954</v>
+        <v>-0.1197744480347934</v>
       </c>
       <c r="H18" t="n">
-        <v>-30.35196713104371</v>
+        <v>-9.885794809230134</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.08282490357576297</v>
+        <v>-0.06902413018068364</v>
       </c>
       <c r="H19" t="n">
-        <v>6.039255222810639</v>
+        <v>21.69554808546042</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0749036675066328</v>
+        <v>0.08879058609747004</v>
       </c>
       <c r="H20" t="n">
-        <v>-18.44391506109853</v>
+        <v>-3.32365793839299</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1393765840905792</v>
+        <v>0.082917519595175</v>
       </c>
       <c r="H21" t="n">
-        <v>85.01116588544225</v>
+        <v>10.066314745256</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09592176563319911</v>
+        <v>0.1241478991975112</v>
       </c>
       <c r="H22" t="n">
-        <v>-20.36997762444062</v>
+        <v>3.062114481709841</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1581775886261837</v>
+        <v>0.1504546825949493</v>
       </c>
       <c r="H23" t="n">
-        <v>20.4716364184817</v>
+        <v>14.58969615393679</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09290562014382474</v>
+        <v>0.09779270042202763</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.607343869570125</v>
+        <v>2.515766317735982</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09390607073106323</v>
+        <v>0.09687763578230502</v>
       </c>
       <c r="H25" t="n">
-        <v>9.451311746621158</v>
+        <v>12.91479062787779</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03669281719302514</v>
+        <v>0.04725516106815256</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.44104889767479</v>
+        <v>23.06641929643012</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03999957697359237</v>
+        <v>0.02545666866463251</v>
       </c>
       <c r="H27" t="n">
-        <v>11.64190991846553</v>
+        <v>-28.94847083614335</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.112978822096432</v>
+        <v>-0.1046993405080485</v>
       </c>
       <c r="H28" t="n">
-        <v>-15.32947780512146</v>
+        <v>-6.877731979073033</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0972243006290992</v>
+        <v>-0.09783787343583084</v>
       </c>
       <c r="H29" t="n">
-        <v>10.68228552070114</v>
+        <v>10.11861038589112</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1305366137294684</v>
+        <v>0.112630829881995</v>
       </c>
       <c r="H30" t="n">
-        <v>7.048781085429923</v>
+        <v>-7.635162985799604</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1222759720240669</v>
+        <v>0.1248628387139649</v>
       </c>
       <c r="H31" t="n">
-        <v>13.62682595851232</v>
+        <v>16.03071158121717</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06221759411413611</v>
+        <v>0.06249002223171238</v>
       </c>
       <c r="H32" t="n">
-        <v>38.27508024493999</v>
+        <v>38.88053631175175</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08129466119846153</v>
+        <v>0.08568716440443119</v>
       </c>
       <c r="H33" t="n">
-        <v>-4.218617206033676</v>
+        <v>0.9566307720299393</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.005186750175685604</v>
+        <v>-0.002039386798363595</v>
       </c>
       <c r="H34" t="n">
-        <v>-1012.980349227032</v>
+        <v>-337.6145667651485</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03417303490197423</v>
+        <v>0.04228147349781593</v>
       </c>
       <c r="H35" t="n">
-        <v>-16.517444491259</v>
+        <v>3.290956404602503</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03620052158074187</v>
+        <v>0.04577455203146179</v>
       </c>
       <c r="H36" t="n">
-        <v>-12.79371095100248</v>
+        <v>10.26992543852257</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03140650718523798</v>
+        <v>0.03709168956417235</v>
       </c>
       <c r="H37" t="n">
-        <v>-25.50710050321187</v>
+        <v>-12.02245169852307</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.09148633787704914</v>
+        <v>-0.1042787322241302</v>
       </c>
       <c r="H38" t="n">
-        <v>12.01029353870632</v>
+        <v>-0.2931721989811579</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1225850442918438</v>
+        <v>-0.1754433994939808</v>
       </c>
       <c r="H39" t="n">
-        <v>-24.41398308404934</v>
+        <v>-78.06097198028698</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1285105310891061</v>
+        <v>0.1384246605565929</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.880330645839557</v>
+        <v>4.612105714485142</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1281786088088698</v>
+        <v>0.1360961061925699</v>
       </c>
       <c r="H41" t="n">
-        <v>1.166227649687893</v>
+        <v>7.415190329019025</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08547452384880318</v>
+        <v>0.08332884249020575</v>
       </c>
       <c r="H42" t="n">
-        <v>-9.523049647927913</v>
+        <v>-11.79430776100723</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1110065102272983</v>
+        <v>0.1161928594664314</v>
       </c>
       <c r="H43" t="n">
-        <v>4.849797004214272</v>
+        <v>9.748497664226026</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.02702666433515784</v>
+        <v>-0.03616730063133095</v>
       </c>
       <c r="H44" t="n">
-        <v>-122.178255861445</v>
+        <v>-197.3207375440888</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.02288802083932573</v>
+        <v>-0.01180196687329326</v>
       </c>
       <c r="H45" t="n">
-        <v>37.39646986689659</v>
+        <v>67.71914907065118</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0494588768302817</v>
+        <v>0.0669497802300017</v>
       </c>
       <c r="H46" t="n">
-        <v>-9.373820500588868</v>
+        <v>22.67570938560884</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05688460350117217</v>
+        <v>0.06408204690836343</v>
       </c>
       <c r="H47" t="n">
-        <v>40.90624859508781</v>
+        <v>58.73470634221562</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.03120874045905624</v>
+        <v>-0.02069287013296042</v>
       </c>
       <c r="H48" t="n">
-        <v>-3.613500531022011</v>
+        <v>31.29935143256657</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.02613489859227327</v>
+        <v>-0.02261898976321095</v>
       </c>
       <c r="H49" t="n">
-        <v>24.55984342806185</v>
+        <v>34.7087526201388</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09017824139781762</v>
+        <v>0.08795325321771492</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1557853936050537</v>
+        <v>-2.315380989941946</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06876050082579707</v>
+        <v>0.06280513380161518</v>
       </c>
       <c r="H51" t="n">
-        <v>4.92089379777425</v>
+        <v>-4.166335404554824</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03382869106079982</v>
+        <v>0.01178400959557378</v>
       </c>
       <c r="H52" t="n">
-        <v>130.0767393758553</v>
+        <v>-19.85422966408725</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03805128316846478</v>
+        <v>0.008295735231875583</v>
       </c>
       <c r="H53" t="n">
-        <v>35.06917097578722</v>
+        <v>-70.55294888628923</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04883960356334163</v>
+        <v>0.04186891119016403</v>
       </c>
       <c r="H54" t="n">
-        <v>151.7123863266423</v>
+        <v>115.7864269906733</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05103407725099665</v>
+        <v>0.03969315770999166</v>
       </c>
       <c r="H55" t="n">
-        <v>-21.77798397979942</v>
+        <v>-39.1606748758707</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05460525660460729</v>
+        <v>0.07463523052059054</v>
       </c>
       <c r="H56" t="n">
-        <v>-14.91608632774381</v>
+        <v>16.29388643852771</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0742698588851655</v>
+        <v>0.08304627701186298</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.97581158001168</v>
+        <v>9.607639324805232</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02896751501364637</v>
+        <v>0.02520335805014425</v>
       </c>
       <c r="H58" t="n">
-        <v>1.724980786949573</v>
+        <v>-11.49357781605557</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02924082894779932</v>
+        <v>0.02086694567640123</v>
       </c>
       <c r="H59" t="n">
-        <v>8.862704816556782</v>
+        <v>-22.31300447574496</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04482364369351647</v>
+        <v>0.03836111631951984</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.4059838266182173</v>
+        <v>-14.76512562703907</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04487734202783759</v>
+        <v>0.04855839443997823</v>
       </c>
       <c r="H61" t="n">
-        <v>-10.29571739859039</v>
+        <v>-2.937746740603626</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00300576465798608</v>
+        <v>0.004868814490089586</v>
       </c>
       <c r="H62" t="n">
-        <v>123.6197803055099</v>
+        <v>138.2599244084704</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01154519262574682</v>
+        <v>0.005248328951720082</v>
       </c>
       <c r="H63" t="n">
-        <v>177.3779780624677</v>
+        <v>26.09325110681367</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03947970117555385</v>
+        <v>0.05770503174577078</v>
       </c>
       <c r="H64" t="n">
-        <v>4.801298035722521</v>
+        <v>53.1815603987918</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08249708086744006</v>
+        <v>0.08854647403885173</v>
       </c>
       <c r="H65" t="n">
-        <v>7.969707672645835</v>
+        <v>15.88697220426883</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0009863390422601751</v>
+        <v>-0.01765231486415188</v>
       </c>
       <c r="H66" t="n">
-        <v>84.19011611401835</v>
+        <v>-182.9463666788663</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.008216198485374434</v>
+        <v>0.013520959803119</v>
       </c>
       <c r="H67" t="n">
-        <v>39.42435422899104</v>
+        <v>129.4432263852619</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.005049676170891491</v>
+        <v>0.01212723680007524</v>
       </c>
       <c r="H68" t="n">
-        <v>-3042.432090921997</v>
+        <v>6966.506747590479</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01819277786498966</v>
+        <v>0.008826103532502775</v>
       </c>
       <c r="H69" t="n">
-        <v>158.2882794912069</v>
+        <v>25.3068175151217</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07159292775944263</v>
+        <v>-0.06763921887906221</v>
       </c>
       <c r="H70" t="n">
-        <v>-13.64121376075631</v>
+        <v>-7.365394485243423</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.05341051831073038</v>
+        <v>-0.05757170128330426</v>
       </c>
       <c r="H71" t="n">
-        <v>-12.90632138529151</v>
+        <v>-21.70278839036904</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06157143379927073</v>
+        <v>0.06586153856877067</v>
       </c>
       <c r="H72" t="n">
-        <v>-10.08309491982036</v>
+        <v>-3.817966441559697</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.06806722244893008</v>
+        <v>0.06911503240065128</v>
       </c>
       <c r="H73" t="n">
-        <v>-7.596009291320279</v>
+        <v>-6.173565160946782</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05002131870887359</v>
+        <v>0.05352637368367275</v>
       </c>
       <c r="H74" t="n">
-        <v>-20.64662316754172</v>
+        <v>-15.08623500879491</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03493384293956828</v>
+        <v>0.03495564889280989</v>
       </c>
       <c r="H75" t="n">
-        <v>31.98167336887831</v>
+        <v>32.0640572681593</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.001308943659968534</v>
+        <v>0.003189869474750818</v>
       </c>
       <c r="H76" t="n">
-        <v>-92.36531894190672</v>
+        <v>-81.39443522171503</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0007225126109506524</v>
+        <v>0.009038258487220259</v>
       </c>
       <c r="H77" t="n">
-        <v>106.1783289697197</v>
+        <v>177.287694915019</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01165287423487424</v>
+        <v>0.01184007735742971</v>
       </c>
       <c r="H78" t="n">
-        <v>358.8600491088351</v>
+        <v>366.2316239046955</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.003265349010139536</v>
+        <v>0.003716501620326919</v>
       </c>
       <c r="H79" t="n">
-        <v>51.63938410163767</v>
+        <v>155.0422961797247</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03947102183839561</v>
+        <v>0.0258972383012024</v>
       </c>
       <c r="H80" t="n">
-        <v>219.7377693481845</v>
+        <v>109.782387712347</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0472055949180798</v>
+        <v>0.06699500826432556</v>
       </c>
       <c r="H81" t="n">
-        <v>17.87818997074704</v>
+        <v>67.29479471615089</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05081011656420437</v>
+        <v>0.05244520444905474</v>
       </c>
       <c r="H82" t="n">
-        <v>29.32701312539841</v>
+        <v>33.48880307283964</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03297392802737022</v>
+        <v>0.03335492463123822</v>
       </c>
       <c r="H83" t="n">
-        <v>-20.53867673450806</v>
+        <v>-19.62054243525562</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0174667565507911</v>
+        <v>0.02331929296330138</v>
       </c>
       <c r="H84" t="n">
-        <v>-52.20674559133545</v>
+        <v>-36.19279584137982</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0326235568888491</v>
+        <v>0.04194379105823501</v>
       </c>
       <c r="H85" t="n">
-        <v>5.173793365925897</v>
+        <v>35.22092728185054</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02842281899513354</v>
+        <v>0.02053769733528835</v>
       </c>
       <c r="H86" t="n">
-        <v>-12.84615483609935</v>
+        <v>-37.02456839734148</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04110140606968387</v>
+        <v>0.05931823504462812</v>
       </c>
       <c r="H87" t="n">
-        <v>-23.87615313509289</v>
+        <v>9.863205973492589</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06956192695077633</v>
+        <v>0.08866801027307518</v>
       </c>
       <c r="H88" t="n">
-        <v>-17.66484798769588</v>
+        <v>4.949566874824942</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1002213852821072</v>
+        <v>0.09486039678430282</v>
       </c>
       <c r="H89" t="n">
-        <v>10.97754145336282</v>
+        <v>5.041190428365515</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0344587551848569</v>
+        <v>-0.04149448128677174</v>
       </c>
       <c r="H90" t="n">
-        <v>30.73318719698633</v>
+        <v>16.5904150561988</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01971863541145283</v>
+        <v>-0.02368065287774183</v>
       </c>
       <c r="H91" t="n">
-        <v>3.877446233057629</v>
+        <v>-15.4362247681179</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03086877465042221</v>
+        <v>0.03809228265250168</v>
       </c>
       <c r="H92" t="n">
-        <v>-21.86822997947947</v>
+        <v>-3.584852283042667</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0494411808902282</v>
+        <v>0.03529173376519393</v>
       </c>
       <c r="H93" t="n">
-        <v>0.45667957238912</v>
+        <v>-28.29276472429765</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.09652897824834118</v>
+        <v>0.09444847580885075</v>
       </c>
       <c r="H94" t="n">
-        <v>6.358172964096433</v>
+        <v>4.065820529346093</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1069214023301275</v>
+        <v>0.1062960923971956</v>
       </c>
       <c r="H95" t="n">
-        <v>2.757723135287456</v>
+        <v>2.156763705634944</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09464411319332762</v>
+        <v>-0.07789968223327438</v>
       </c>
       <c r="H96" t="n">
-        <v>15.52756569429427</v>
+        <v>30.47242382160609</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1117063887391185</v>
+        <v>-0.12730531388898</v>
       </c>
       <c r="H97" t="n">
-        <v>-4.410655220678956</v>
+        <v>-18.99078813894072</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.09756899573276923</v>
+        <v>0.09707904523276474</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8633768546045864</v>
+        <v>0.356883356840143</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.111786747907874</v>
+        <v>0.1180852776894462</v>
       </c>
       <c r="H99" t="n">
-        <v>-1.853447657095153</v>
+        <v>3.676536839813869</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0297854185146529</v>
+        <v>0.02198739208709902</v>
       </c>
       <c r="H100" t="n">
-        <v>-22.47125312521602</v>
+        <v>-42.76880968723924</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03203958756433967</v>
+        <v>0.01204248455756322</v>
       </c>
       <c r="H101" t="n">
-        <v>58.8782306893975</v>
+        <v>-40.28360584330546</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>0.008245473400455009</v>
+        <v>0.01769275432526818</v>
       </c>
       <c r="H102" t="n">
-        <v>446.4465327044821</v>
+        <v>843.388898646273</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>0.009048168704369893</v>
+        <v>-0.001253493728953434</v>
       </c>
       <c r="H103" t="n">
-        <v>239.4162921476504</v>
+        <v>80.68587648718145</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06025957749713434</v>
+        <v>0.07341966723068521</v>
       </c>
       <c r="H104" t="n">
-        <v>31.28707796497607</v>
+        <v>59.95886423757213</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07682350878257384</v>
+        <v>0.08521609476724734</v>
       </c>
       <c r="H105" t="n">
-        <v>15.61226312784028</v>
+        <v>28.24232747349785</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2680275493501189</v>
+        <v>-0.281268648243585</v>
       </c>
       <c r="H106" t="n">
-        <v>-3.982408495139368</v>
+        <v>-9.119348176912112</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2565577425585684</v>
+        <v>-0.2733271932807567</v>
       </c>
       <c r="H107" t="n">
-        <v>11.35426141171759</v>
+        <v>5.560086852168551</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1541250534777782</v>
+        <v>0.1447707932635198</v>
       </c>
       <c r="H108" t="n">
-        <v>2.051727511292779</v>
+        <v>-4.142063782949087</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1918322903136464</v>
+        <v>0.1934309716421216</v>
       </c>
       <c r="H109" t="n">
-        <v>1.602408130520305</v>
+        <v>2.449136658552824</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07212138778493836</v>
+        <v>0.08741948956680415</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3146494687315782</v>
+        <v>21.59299372856474</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06066719904117158</v>
+        <v>0.09115659236918411</v>
       </c>
       <c r="H111" t="n">
-        <v>-7.240526773438208</v>
+        <v>39.37741684028551</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.08757586210163906</v>
+        <v>0.05432842771800007</v>
       </c>
       <c r="H112" t="n">
-        <v>4.026384554615497</v>
+        <v>-35.46635136196356</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.09710828531328197</v>
+        <v>0.06708913995034102</v>
       </c>
       <c r="H113" t="n">
-        <v>26.08110452140838</v>
+        <v>-12.89442668005376</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>